--- a/saida.xlsx
+++ b/saida.xlsx
@@ -437,13 +437,13 @@
     <t>RJ</t>
   </si>
   <si>
-    <t>2018-11-16T13:14:03.749Z</t>
+    <t>2018-11-22T08:24:22.110Z</t>
   </si>
   <si>
     <t>2018-10-18T00:52:11.637Z</t>
   </si>
   <si>
-    <t>2018-10-18T00:50:45.556Z</t>
+    <t>2018-11-19T14:16:07.611Z</t>
   </si>
   <si>
     <t>2018-09-14T16:43:27.377Z</t>
